--- a/AB020_機能設計書/BB020_テーブル設計書/BB020010_株価時系列.xlsx
+++ b/AB020_機能設計書/BB020_テーブル設計書/BB020010_株価時系列.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B60BBFC-8A0A-4D8B-A776-5E0A2661ED87}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40E1AF9C-1BEF-4230-9505-F01B2C3491AC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="46296" windowHeight="24744" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6000" yWindow="9816" windowWidth="15612" windowHeight="7368" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="基本情報" sheetId="1" r:id="rId1"/>
@@ -14,9 +14,9 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">テーブル情報!$A$1:$I$18</definedName>
-    <definedName name="論理型">型!$B$2:$B$10</definedName>
+    <definedName name="論理型">型!$B$2:$B$9</definedName>
   </definedNames>
-  <calcPr calcId="191029" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="74">
   <si>
     <t>作成日</t>
     <rPh sb="0" eb="3">
@@ -456,43 +456,39 @@
   </si>
   <si>
     <t>4バイト整数</t>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>INT</t>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>BIGINT</t>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>DATE</t>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>VARCHAR</t>
-  </si>
-  <si>
-    <t>日時型</t>
-    <rPh sb="0" eb="2">
-      <t>ニチジ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ガタ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>DATETIMEOFFSET</t>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>SMALLSERIAL</t>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>SERIAL</t>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>REAL</t>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>DOUBLE PRECISION</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -1847,7 +1843,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD538CA0-48EE-4F2D-A563-3D443B5340B0}">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -1880,6 +1876,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="5">
+        <f>ROW()-1</f>
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
@@ -1894,6 +1891,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="5">
+        <f t="shared" ref="A3:A9" si="0">ROW()-1</f>
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
@@ -1908,6 +1906,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="5">
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
@@ -1922,6 +1921,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="5">
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
@@ -1936,13 +1936,14 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="5">
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C6" s="5" t="s">
         <v>70</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>71</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>17</v>
@@ -1950,13 +1951,14 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="5">
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>17</v>
@@ -1964,13 +1966,14 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="5">
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>17</v>
@@ -1978,29 +1981,16 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="5">
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="5">
-        <v>9</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="D10" s="5" t="s">
         <v>17</v>
       </c>
     </row>
